--- a/Logs/Conescapan/cv1/vuelta1corre.xlsx
+++ b/Logs/Conescapan/cv1/vuelta1corre.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C77A29-21C1-4CE6-8566-56C90E4207B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB59D7-68BC-4D19-A48E-5F5ECD779FDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Correccion</t>
   </si>
@@ -55,12 +55,39 @@
   <si>
     <t>COORDENADAS</t>
   </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitudvirtual</t>
+  </si>
+  <si>
+    <t>longitudvirtual</t>
+  </si>
+  <si>
+    <t>DRPREG0</t>
+  </si>
+  <si>
+    <t>DRPREG1</t>
+  </si>
+  <si>
+    <t>DRPREG2</t>
+  </si>
+  <si>
+    <t>DRPREG3</t>
+  </si>
+  <si>
+    <t>EJE X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +109,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,12 +144,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -175,11 +227,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -194,7 +255,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2598,7 +2666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg2t!$A$1:$A$39</c:f>
+              <c:f>reg2t!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -2724,7 +2792,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$B$1:$B$39</c:f>
+              <c:f>reg2t!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -2885,7 +2953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg2t!$C$1:$C$38</c:f>
+              <c:f>reg2t!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3008,7 +3076,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$D$1:$D$38</c:f>
+              <c:f>reg2t!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3436,7 +3504,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$G$1:$G$38</c:f>
+              <c:f>reg2t!$G$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3594,7 +3662,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg2t!$I$1:$I$38</c:f>
+              <c:f>reg2t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3717,7 +3785,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$E$1:$E$38</c:f>
+              <c:f>reg2t!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3875,7 +3943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg2t!$I$1:$I$38</c:f>
+              <c:f>reg2t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3998,7 +4066,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$F$1:$F$38</c:f>
+              <c:f>reg2t!$F$2:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -4156,7 +4224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg2t!$I$1:$I$38</c:f>
+              <c:f>reg2t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -4279,7 +4347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg2t!$H$1:$H$38</c:f>
+              <c:f>reg2t!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -4699,7 +4767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$A$1:$A$28</c:f>
+              <c:f>reg3t!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4792,7 +4860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$B$1:$B$28</c:f>
+              <c:f>reg3t!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4920,7 +4988,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$C$1:$C$27</c:f>
+              <c:f>reg3t!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5010,7 +5078,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$D$1:$D$27</c:f>
+              <c:f>reg3t!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5402,7 +5470,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$I$1:$I$27</c:f>
+              <c:f>reg3t!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5492,7 +5560,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$H$1:$H$27</c:f>
+              <c:f>reg3t!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5617,7 +5685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$I$1:$I$27</c:f>
+              <c:f>reg3t!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5707,7 +5775,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$E$1:$E$27</c:f>
+              <c:f>reg3t!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5832,7 +5900,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$I$1:$I$27</c:f>
+              <c:f>reg3t!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -5922,7 +5990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$F$1:$F$27</c:f>
+              <c:f>reg3t!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6047,7 +6115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg3t!$I$1:$I$27</c:f>
+              <c:f>reg3t!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -6137,7 +6205,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg3t!$G$1:$G$27</c:f>
+              <c:f>reg3t!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -8696,7 +8764,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$A$1:$A$39</c:f>
+              <c:f>reg0t!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8822,7 +8890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$B$1:$B$39</c:f>
+              <c:f>reg0t!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8983,7 +9051,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$C$1:$C$38</c:f>
+              <c:f>reg0t!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9106,7 +9174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$D$1:$D$38</c:f>
+              <c:f>reg0t!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9456,7 +9524,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-PA"/>
-              <a:t>DISTANCIA PUNTO A RECTA REG0</a:t>
+              <a:t>DISTANCIA PUNTO A RECTA REG0 (drp)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9526,7 +9594,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$I$1:$I$38</c:f>
+              <c:f>reg0t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9649,7 +9717,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$E$1:$E$38</c:f>
+              <c:f>reg0t!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9807,7 +9875,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$I$1:$I$38</c:f>
+              <c:f>reg0t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -9930,7 +9998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$F$1:$F$38</c:f>
+              <c:f>reg0t!$F$2:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -10088,7 +10156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$I$1:$I$38</c:f>
+              <c:f>reg0t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -10211,7 +10279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$G$1:$G$38</c:f>
+              <c:f>reg0t!$G$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -10369,7 +10437,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg0t!$I$1:$I$38</c:f>
+              <c:f>reg0t!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -10492,7 +10560,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg0t!$H$1:$H$38</c:f>
+              <c:f>reg0t!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -10917,7 +10985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$A$1:$A$48</c:f>
+              <c:f>reg1t!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -11070,7 +11138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$B$1:$B$48</c:f>
+              <c:f>reg1t!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -11258,7 +11326,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$C$1:$C$47</c:f>
+              <c:f>reg1t!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -11408,7 +11476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$D$1:$D$47</c:f>
+              <c:f>reg1t!$D$2:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -11785,7 +11853,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-PA"/>
-              <a:t>DISTANCIA PUNTO A RECTA</a:t>
+              <a:t>DISTANCIA PUNTO A RECTA(drp)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11863,7 +11931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$I$1:$I$47</c:f>
+              <c:f>reg1t!$I$2:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12013,7 +12081,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$F$1:$F$47</c:f>
+              <c:f>reg1t!$F$2:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12198,7 +12266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$I$1:$I$47</c:f>
+              <c:f>reg1t!$I$2:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12348,7 +12416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$E$1:$E$47</c:f>
+              <c:f>reg1t!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12533,7 +12601,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$I$1:$I$47</c:f>
+              <c:f>reg1t!$I$2:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12683,7 +12751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$G$1:$G$47</c:f>
+              <c:f>reg1t!$G$2:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -12868,7 +12936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>reg1t!$I$1:$I$47</c:f>
+              <c:f>reg1t!$I$2:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -13018,7 +13086,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>reg1t!$H$1:$H$47</c:f>
+              <c:f>reg1t!$H$2:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -20578,16 +20646,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121442</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>478631</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20614,16 +20682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>421480</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>126205</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>135731</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>116680</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>69054</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20650,16 +20718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>107154</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>147634</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>90485</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20686,16 +20754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>169067</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20722,16 +20790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20765,13 +20833,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20801,13 +20869,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20833,6 +20901,93 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9CD2D0-352E-40AE-BECC-D7E938AE714C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="3505200"/>
+          <a:ext cx="3028950" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100"/>
+            <a:t>La grafica</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t> "Distancia Punto a Recta REG0" representa la distancia que hay de el punto proveeido por el GPS a los modelos de cada region, como se puedo observar hay partes donde los valores tienden a ser iguales y se debe a que en esos momentos el robot estaria apunto de curvar retornando a la region 0.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t>Esto representa un problema para poder ubicar al robot en una de las regiones.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t>Los valores que estan ubicados en cero significan que esta efectivamente en la region 0.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20842,13 +20997,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20878,13 +21033,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20910,6 +21065,93 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCECC54D-6620-4D8A-A874-8171890F318A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="3800475"/>
+          <a:ext cx="3028950" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100"/>
+            <a:t>La grafica</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t> "Distancia Punto a Recta REG1" representa la distancia que hay de el punto proveeido por el GPS a los modelos de cada region, como se puedo observar hay partes donde los valores tienden a ser iguales y se debe a que en esos momentos el robot estaria apunto de iniciar a recorrer la region 1 o curvando para pasar a la region 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t>Esto representa un problema para poder ubicar al robot en una de las regiones.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1100" baseline="0"/>
+            <a:t>Los valores que estan ubicados en cero significan que esta efectivamente en la region 1.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20919,13 +21161,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20955,13 +21197,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20996,13 +21238,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21032,13 +21274,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21332,8 +21574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD154"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124:D150"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23573,41 +23815,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11AC989-70A6-4F3F-A996-930BEB9204A9}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D38"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>9.0234249999999996</v>
-      </c>
-      <c r="B1" s="1">
-        <v>-79.531702999999993</v>
-      </c>
-      <c r="C1" s="2">
-        <v>9.0234253217799996</v>
-      </c>
-      <c r="D1" s="3">
-        <v>-79.531703558999993</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="8">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3">
-        <v>29</v>
-      </c>
-      <c r="I1" s="10">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23615,28 +23857,28 @@
         <v>9.0234249999999996</v>
       </c>
       <c r="B2" s="1">
-        <v>-79.531704000000005</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.0234248456399992</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-79.531703211600004</v>
-      </c>
-      <c r="E2" s="4">
+        <v>-79.531702999999993</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.0234253217799996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-79.531703558999993</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>33</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>22</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>29</v>
       </c>
       <c r="I2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23644,28 +23886,28 @@
         <v>9.0234249999999996</v>
       </c>
       <c r="B3" s="1">
-        <v>-79.531702999999993</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.0234253217799996</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-79.531703558999993</v>
-      </c>
-      <c r="E3" s="2">
+        <v>-79.531704000000005</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.0234248456399992</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-79.531703211600004</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>33</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>22</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>29</v>
       </c>
       <c r="I3" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23673,28 +23915,28 @@
         <v>9.0234249999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>-79.531704000000005</v>
-      </c>
-      <c r="C4" s="4">
+        <v>-79.531702999999993</v>
+      </c>
+      <c r="C4" s="2">
         <v>9.0234253217799996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>-79.531703558999993</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>33</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>22</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>29</v>
       </c>
       <c r="I4" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23704,26 +23946,26 @@
       <c r="B5" s="1">
         <v>-79.531704000000005</v>
       </c>
-      <c r="C5" s="2">
-        <v>9.0234248456399992</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-79.531703211600004</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="4">
+        <v>9.0234253217799996</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-79.531703558999993</v>
+      </c>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>33</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>22</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>29</v>
       </c>
       <c r="I5" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23731,2362 +23973,2463 @@
         <v>9.0234249999999996</v>
       </c>
       <c r="B6" s="1">
-        <v>-79.531702999999993</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9.0234224116899995</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-79.531701435700001</v>
-      </c>
-      <c r="E6" s="4">
+        <v>-79.531704000000005</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.0234248456399992</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-79.531703211600004</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>33</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>22</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>29</v>
       </c>
       <c r="I6" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>9.0234220000000001</v>
+        <v>9.0234249999999996</v>
       </c>
       <c r="B7" s="1">
-        <v>-79.531701999999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.0234188490000005</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-79.531698836399997</v>
-      </c>
-      <c r="E7" s="2">
+        <v>-79.531702999999993</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.0234224116899995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-79.531701435700001</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="9">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9">
         <v>22</v>
       </c>
-      <c r="H7" s="3">
-        <v>28</v>
+      <c r="H7" s="5">
+        <v>29</v>
       </c>
       <c r="I7" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>9.0234179999999995</v>
+        <v>9.0234220000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>-79.531700000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9.0234141575700004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-79.531695413400001</v>
-      </c>
-      <c r="E8" s="4">
+        <v>-79.531701999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.0234188490000005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-79.531698836399997</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>32</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>22</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>28</v>
       </c>
       <c r="I8" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9.0234129999999997</v>
+        <v>9.0234179999999995</v>
       </c>
       <c r="B9" s="1">
-        <v>-79.531696999999994</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.0234081609299999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-79.531691038199995</v>
-      </c>
-      <c r="E9" s="2">
+        <v>-79.531700000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.0234141575700004</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-79.531695413400001</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
-        <v>31</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="9">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9">
         <v>22</v>
       </c>
-      <c r="H9" s="3">
-        <v>27</v>
+      <c r="H9" s="5">
+        <v>28</v>
       </c>
       <c r="I9" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9.0234059999999996</v>
+        <v>9.0234129999999997</v>
       </c>
       <c r="B10" s="1">
-        <v>-79.531694000000002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9.0234018646000003</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-79.531686444399995</v>
-      </c>
-      <c r="E10" s="4">
+        <v>-79.531696999999994</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.0234081609299999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-79.531691038199995</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9">
-        <v>23</v>
-      </c>
-      <c r="H10" s="5">
-        <v>26</v>
+      <c r="F10" s="8">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3">
+        <v>27</v>
       </c>
       <c r="I10" s="10">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9.0234000000000005</v>
+        <v>9.0234059999999996</v>
       </c>
       <c r="B11" s="1">
-        <v>-79.531689</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.02339461599</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-79.531681155699999</v>
-      </c>
-      <c r="E11" s="2">
+        <v>-79.531694000000002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9.0234018646000003</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-79.531686444399995</v>
+      </c>
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="9">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9">
         <v>23</v>
       </c>
-      <c r="H11" s="3">
-        <v>25</v>
+      <c r="H11" s="5">
+        <v>26</v>
       </c>
       <c r="I11" s="10">
-        <v>11</v>
-      </c>
-      <c r="N11" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>9.0233939999999997</v>
+        <v>9.0234000000000005</v>
       </c>
       <c r="B12" s="1">
-        <v>-79.531682000000004</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9.0233876670599997</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-79.531676085699999</v>
-      </c>
-      <c r="E12" s="4">
+        <v>-79.531689</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.02339461599</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-79.531681155699999</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
-        <v>28</v>
-      </c>
-      <c r="G12" s="9">
-        <v>24</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24</v>
+      <c r="F12" s="8">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>25</v>
       </c>
       <c r="I12" s="10">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>9.0233869999999996</v>
+        <v>9.0233939999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>-79.531677000000002</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.0233800655399996</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-79.5316705396</v>
-      </c>
-      <c r="E13" s="2">
+        <v>-79.531682000000004</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.0233876670599997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-79.531676085699999</v>
+      </c>
+      <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>27</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="9">
+        <v>28</v>
+      </c>
+      <c r="G13" s="9">
         <v>24</v>
       </c>
-      <c r="H13" s="3">
-        <v>23</v>
+      <c r="H13" s="5">
+        <v>24</v>
       </c>
       <c r="I13" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9.0233790000000003</v>
+        <v>9.0233869999999996</v>
       </c>
       <c r="B14" s="1">
-        <v>-79.531672</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.0233726404700008</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-79.531665122199996</v>
-      </c>
-      <c r="E14" s="4">
+        <v>-79.531677000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.0233800655399996</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-79.5316705396</v>
+      </c>
+      <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8">
         <v>24</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>23</v>
       </c>
       <c r="I14" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>9.0233720000000002</v>
+        <v>9.0233790000000003</v>
       </c>
       <c r="B15" s="1">
-        <v>-79.531666000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.0233658680000008</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-79.531660180900005</v>
-      </c>
-      <c r="E15" s="2">
+        <v>-79.531672</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.0233726404700008</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-79.531665122199996</v>
+      </c>
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
-        <v>25</v>
-      </c>
-      <c r="G15" s="8">
-        <v>25</v>
-      </c>
-      <c r="H15" s="3">
-        <v>22</v>
+      <c r="F15" s="9">
+        <v>26</v>
+      </c>
+      <c r="G15" s="9">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5">
+        <v>23</v>
       </c>
       <c r="I15" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>9.0233720000000002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-79.531666000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.0233658680000008</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-79.531660180900005</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>22</v>
+      </c>
+      <c r="I16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>9.0233659999999993</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>-79.531660000000002</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>9.0233600478200007</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>-79.531655934499994</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>24</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>25</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <v>21</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>9.0233600000000003</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>-79.531655999999998</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>9.0233540511800001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>-79.531651559300002</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>23</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>25</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>20</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I18" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>9.0233530000000002</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>-79.531653000000006</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>9.0233471022600007</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>-79.531646489300002</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>23</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>26</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I19" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>9.0233460000000001</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>-79.531648000000004</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>9.0233411056200001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>-79.531642113999993</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>22</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>26</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>19</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>9.023339</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>-79.531644999999997</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>9.0233335040899991</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>-79.531636567899994</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>21</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>26</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>18</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>9.0233310000000007</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>-79.531639999999996</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>9.02332703131</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>-79.531631845299998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>20</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>26</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>17</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="10">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>9.0233240000000006</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>-79.531636000000006</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>9.0233199059300002</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>-79.531626646600003</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>19</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>26</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <v>16</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>9.0233159999999994</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>-79.531632000000002</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>9.0233127805399995</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>-79.531621447800006</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>18</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>27</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>15</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>9.0233080000000001</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>-79.531627999999998</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>9.0233064842200008</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>-79.531616853900005</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>17</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>27</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>14</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>9.0233019999999993</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>-79.531622999999996</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>9.0233001879000003</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>-79.531612260100005</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>16</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>27</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>14</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>9.0232960000000002</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>-79.531617999999995</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>9.0232937151100003</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>-79.531607537499994</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>16</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>28</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="5">
         <v>13</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>9.0232890000000001</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>-79.531614000000005</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>9.0232861135900002</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>-79.531601991299993</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>15</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>28</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>12</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>9.0232810000000008</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>-79.531609000000003</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>9.0232785120599992</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>-79.531596445199995</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>13</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>28</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>11</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>9.0232729999999997</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>-79.531604000000002</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>9.0232733444799997</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>-79.531592674899997</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>13</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>29</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <v>10</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I30" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>9.0232679999999998</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>-79.531599999999997</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>9.0232660958699995</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="5">
         <v>-79.531587386200002</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>12</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>29</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <v>10</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>9.0232620000000008</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>-79.531593000000001</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>9.0232593233999996</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="3">
         <v>-79.531582444999998</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>11</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>30</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>9</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>9.0232559999999999</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-79.531587000000002</v>
-      </c>
-      <c r="C32" s="4">
-        <v>9.0232507695899997</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-79.531576204000004</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>10</v>
-      </c>
-      <c r="G32" s="9">
-        <v>30</v>
-      </c>
-      <c r="H32" s="5">
-        <v>8</v>
-      </c>
-      <c r="I32" s="10">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>9.0232480000000006</v>
+        <v>9.0232559999999999</v>
       </c>
       <c r="B33" s="1">
-        <v>-79.531580000000005</v>
-      </c>
-      <c r="C33" s="2">
-        <v>9.0232422157700007</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-79.531569963099997</v>
-      </c>
-      <c r="E33" s="2">
+        <v>-79.531587000000002</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.0232507695899997</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-79.531576204000004</v>
+      </c>
+      <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="8">
-        <v>9</v>
-      </c>
-      <c r="G33" s="8">
-        <v>31</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7</v>
+      <c r="F33" s="9">
+        <v>10</v>
+      </c>
+      <c r="G33" s="9">
+        <v>30</v>
+      </c>
+      <c r="H33" s="5">
+        <v>8</v>
       </c>
       <c r="I33" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>9.0232399999999995</v>
+        <v>9.0232480000000006</v>
       </c>
       <c r="B34" s="1">
-        <v>-79.531572999999995</v>
-      </c>
-      <c r="C34" s="4">
-        <v>9.0232338384100004</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-79.5315638509</v>
-      </c>
-      <c r="E34" s="4">
+        <v>-79.531580000000005</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.0232422157700007</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-79.531569963099997</v>
+      </c>
+      <c r="E34" s="2">
         <v>0</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
+        <v>9</v>
+      </c>
+      <c r="G34" s="8">
+        <v>31</v>
+      </c>
+      <c r="H34" s="3">
         <v>7</v>
       </c>
-      <c r="G34" s="9">
-        <v>31</v>
-      </c>
-      <c r="H34" s="5">
-        <v>6</v>
-      </c>
       <c r="I34" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>9.0232329999999994</v>
+        <v>9.0232399999999995</v>
       </c>
       <c r="B35" s="1">
-        <v>-79.531565000000001</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9.0232254610599991</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-79.531557738700002</v>
-      </c>
-      <c r="E35" s="2">
+        <v>-79.531572999999995</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.0232338384100004</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-79.5315638509</v>
+      </c>
+      <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
+        <v>7</v>
+      </c>
+      <c r="G35" s="9">
+        <v>31</v>
+      </c>
+      <c r="H35" s="5">
         <v>6</v>
       </c>
-      <c r="G35" s="8">
-        <v>32</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
       <c r="I35" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>9.0232259999999993</v>
+        <v>9.0232329999999994</v>
       </c>
       <c r="B36" s="1">
-        <v>-79.531557000000006</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9.0232153023499997</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-79.531550326800001</v>
-      </c>
-      <c r="E36" s="4">
+        <v>-79.531565000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.0232254610599991</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-79.531557738700002</v>
+      </c>
+      <c r="E36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
+        <v>6</v>
+      </c>
+      <c r="G36" s="8">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
         <v>5</v>
       </c>
-      <c r="G36" s="9">
-        <v>33</v>
-      </c>
-      <c r="H36" s="5">
-        <v>4</v>
-      </c>
       <c r="I36" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>9.0232170000000007</v>
+        <v>9.0232259999999993</v>
       </c>
       <c r="B37" s="1">
-        <v>-79.531548000000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9.0232085298900007</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-79.531545385499996</v>
-      </c>
-      <c r="E37" s="2">
+        <v>-79.531557000000006</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.0232153023499997</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-79.531550326800001</v>
+      </c>
+      <c r="E37" s="4">
         <v>0</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
+        <v>5</v>
+      </c>
+      <c r="G37" s="9">
+        <v>33</v>
+      </c>
+      <c r="H37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="8">
-        <v>33</v>
-      </c>
-      <c r="H37" s="3">
-        <v>4</v>
-      </c>
       <c r="I37" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>9.0232109999999999</v>
+        <v>9.0232170000000007</v>
       </c>
       <c r="B38" s="1">
-        <v>-79.531542000000002</v>
-      </c>
-      <c r="C38" s="4">
-        <v>9.0232020571000007</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-79.531540662899999</v>
-      </c>
-      <c r="E38" s="4">
+        <v>-79.531548000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9.0232085298900007</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-79.531545385499996</v>
+      </c>
+      <c r="E38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="9">
-        <v>3</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="8">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8">
         <v>33</v>
       </c>
-      <c r="H38" s="5">
-        <v>3</v>
+      <c r="H38" s="3">
+        <v>4</v>
       </c>
       <c r="I38" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>9.0232109999999999</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-79.531542000000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.0232020571000007</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-79.531540662899999</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3</v>
+      </c>
+      <c r="G39" s="9">
+        <v>33</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>9.0232039999999998</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>-79.531537999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8D0C7C-6DDF-4DAA-A3F2-40296AA061F1}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D47"/>
+      <selection activeCell="Q6" sqref="Q6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>9.0231960000000004</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>-79.531533999999994</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>9.0231786191500003</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="3">
         <v>-79.531518628399994</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G2" s="8">
         <v>34</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>9.0231899999999996</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-79.531531000000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.0231748276800001</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-79.531522116199994</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>9.0231829999999995</v>
       </c>
       <c r="B3" s="1">
         <v>-79.531531000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
+        <v>9.0231748276800001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-79.531522116199994</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9.0231829999999995</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-79.531531000000001</v>
+      </c>
+      <c r="C4" s="2">
         <v>9.0231694980300006</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>-79.531527019099997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4" s="8">
         <v>33</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>9.0231750000000002</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-79.531532999999996</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>9.0231636701299998</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>-79.531532380200005</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="9">
         <v>33</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>9.0231670000000008</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>-79.531536000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>9.0231588821200006</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>-79.531536784799997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>32</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="Q6" s="7"/>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>9.0231600000000007</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>-79.531537999999998</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>9.0231535524800002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="5">
         <v>-79.531541687599997</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>32</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="Q7" s="6"/>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>9.0231519999999996</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>-79.531540000000007</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>9.0231477245799994</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>-79.531547048799993</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>31</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>9.0231440000000003</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>-79.531542999999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>9.02314144178</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>-79.531552828499997</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>30</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9.0231370000000002</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>-79.531548000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>9.0231336641999995</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>-79.531559983199998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>29</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9.0231300000000001</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>-79.531555999999995</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>9.0231263848799994</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>-79.531566679600004</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>28</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>9.023123</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>-79.531563000000006</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>9.0231201020899992</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>-79.531572459200007</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>28</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>6</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>9.0231159999999999</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>-79.531567999999993</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>9.0231138193000007</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <v>-79.531578238799995</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>27</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>6</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>9.0231089999999998</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>-79.531572999999995</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>9.0231064966000005</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>-79.531584975100003</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>26</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>7</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>9.0231010000000005</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>-79.531578999999994</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>9.0230996721699999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>-79.531591253000002</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>25</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <v>8</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I15" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>9.0230929999999994</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>-79.531583999999995</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>9.02309393102</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>-79.531596534399995</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>11</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>25</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>9</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>9.0230870000000003</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-79.531588999999997</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.0230871933400003</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-79.531602732500005</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>24</v>
-      </c>
-      <c r="H16" s="5">
-        <v>9</v>
-      </c>
-      <c r="I16" s="10">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>9.0230809999999995</v>
+        <v>9.0230870000000003</v>
       </c>
       <c r="B17" s="1">
-        <v>-79.531595999999993</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.0230809539199992</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-79.531608472200006</v>
-      </c>
-      <c r="E17" s="2">
-        <v>13</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
+        <v>-79.531588999999997</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.0230871933400003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-79.531602732500005</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5">
+        <v>9</v>
       </c>
       <c r="I17" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>9.0230750000000004</v>
+        <v>9.0230809999999995</v>
       </c>
       <c r="B18" s="1">
-        <v>-79.531602000000007</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.0230747145100008</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-79.531614211999994</v>
-      </c>
-      <c r="E18" s="4">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9">
+        <v>-79.531595999999993</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.0230809539199992</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-79.531608472200006</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="9">
-        <v>22</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="8">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3">
         <v>10</v>
       </c>
       <c r="I18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>9.0230689999999996</v>
+        <v>9.0230750000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>-79.531608000000006</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.0230679334499992</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-79.531620450000005</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8">
+        <v>-79.531602000000007</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.0230747145100008</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-79.531614211999994</v>
+      </c>
+      <c r="E19" s="4">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
-        <v>21</v>
-      </c>
-      <c r="H19" s="3">
-        <v>11</v>
+      <c r="G19" s="9">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
       </c>
       <c r="I19" s="10">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="6"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>9.0230619999999995</v>
+        <v>9.0230689999999996</v>
       </c>
       <c r="B20" s="1">
-        <v>-79.531614000000005</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9.0230647703700004</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-79.531623359799994</v>
-      </c>
-      <c r="E20" s="4">
-        <v>16</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
+        <v>-79.531608000000006</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.0230679334499992</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-79.531620450000005</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>21</v>
       </c>
-      <c r="H20" s="5">
-        <v>12</v>
+      <c r="H20" s="3">
+        <v>11</v>
       </c>
       <c r="I20" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>9.0230580000000007</v>
+        <v>9.0230619999999995</v>
       </c>
       <c r="B21" s="1">
-        <v>-79.531616</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.0230585309499993</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-79.531629099499995</v>
-      </c>
-      <c r="E21" s="2">
-        <v>17</v>
-      </c>
-      <c r="F21" s="8">
+        <v>-79.531614000000005</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.0230647703700004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-79.531623359799994</v>
+      </c>
+      <c r="E21" s="4">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
+        <v>21</v>
+      </c>
+      <c r="H21" s="5">
+        <v>12</v>
+      </c>
+      <c r="I21" s="10">
         <v>20</v>
       </c>
-      <c r="H21" s="3">
-        <v>12</v>
-      </c>
-      <c r="I21" s="10">
-        <v>21</v>
-      </c>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9.0230519999999999</v>
+        <v>9.0230580000000007</v>
       </c>
       <c r="B22" s="1">
-        <v>-79.531621999999999</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9.0230533314399999</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-79.531633882600005</v>
-      </c>
-      <c r="E22" s="4">
+        <v>-79.531616</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.0230585309499993</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-79.531629099499995</v>
+      </c>
+      <c r="E22" s="2">
         <v>17</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>20</v>
       </c>
-      <c r="H22" s="5">
-        <v>13</v>
+      <c r="H22" s="3">
+        <v>12</v>
       </c>
       <c r="I22" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9.023047</v>
+        <v>9.0230519999999999</v>
       </c>
       <c r="B23" s="1">
-        <v>-79.531627</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.0230497134699998</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-79.531637210900001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>18</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>19</v>
-      </c>
-      <c r="H23" s="3">
+        <v>-79.531621999999999</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9.0230533314399999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-79.531633882600005</v>
+      </c>
+      <c r="E23" s="4">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>20</v>
+      </c>
+      <c r="H23" s="5">
         <v>13</v>
       </c>
       <c r="I23" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>9.0230440000000005</v>
+        <v>9.023047</v>
       </c>
       <c r="B24" s="1">
-        <v>-79.531631000000004</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9.0230450555899999</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-79.531641495700001</v>
-      </c>
-      <c r="E24" s="4">
+        <v>-79.531627</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.0230497134699998</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-79.531637210900001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>19</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>18</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>13</v>
       </c>
       <c r="I24" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9.0230399999999999</v>
+        <v>9.0230440000000005</v>
       </c>
       <c r="B25" s="1">
-        <v>-79.531636000000006</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.0230403109699999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-79.531645860400005</v>
-      </c>
-      <c r="E25" s="2">
+        <v>-79.531631000000004</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9.0230450555899999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-79.531641495700001</v>
+      </c>
+      <c r="E25" s="4">
         <v>19</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <v>18</v>
       </c>
-      <c r="H25" s="3">
-        <v>14</v>
+      <c r="H25" s="5">
+        <v>13</v>
       </c>
       <c r="I25" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>9.0230340000000009</v>
+        <v>9.0230399999999999</v>
       </c>
       <c r="B26" s="1">
-        <v>-79.531638999999998</v>
-      </c>
-      <c r="C26" s="4">
-        <v>9.02303452644</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-79.531651181699999</v>
-      </c>
-      <c r="E26" s="4">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9">
+        <v>-79.531636000000006</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.0230403109699999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-79.531645860400005</v>
+      </c>
+      <c r="E26" s="2">
+        <v>19</v>
+      </c>
+      <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="9">
-        <v>17</v>
-      </c>
-      <c r="H26" s="5">
-        <v>15</v>
+      <c r="G26" s="8">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>14</v>
       </c>
       <c r="I26" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>9.0230270000000008</v>
+        <v>9.0230340000000009</v>
       </c>
       <c r="B27" s="1">
-        <v>-79.531643000000003</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9.0230303234499996</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-79.531655048100006</v>
-      </c>
-      <c r="E27" s="2">
-        <v>21</v>
-      </c>
-      <c r="F27" s="8">
+        <v>-79.531638999999998</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.02303452644</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-79.531651181699999</v>
+      </c>
+      <c r="E27" s="4">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>17</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
         <v>15</v>
       </c>
       <c r="I27" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>9.0230219999999992</v>
+        <v>9.0230270000000008</v>
       </c>
       <c r="B28" s="1">
-        <v>-79.531645999999995</v>
-      </c>
-      <c r="C28" s="4">
-        <v>9.0230246256700006</v>
-      </c>
-      <c r="D28" s="5">
-        <v>-79.531660289499996</v>
-      </c>
-      <c r="E28" s="4">
+        <v>-79.531643000000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.0230303234499996</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-79.531655048100006</v>
+      </c>
+      <c r="E28" s="2">
         <v>21</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="9">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5">
-        <v>16</v>
+      <c r="G28" s="8">
+        <v>17</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15</v>
       </c>
       <c r="I28" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>9.0230169999999994</v>
+        <v>9.0230219999999992</v>
       </c>
       <c r="B29" s="1">
-        <v>-79.531651999999994</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9.0230183428800004</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-79.5316660692</v>
-      </c>
-      <c r="E29" s="2">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8">
+        <v>-79.531645999999995</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9.0230246256700006</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-79.531660289499996</v>
+      </c>
+      <c r="E29" s="4">
+        <v>21</v>
+      </c>
+      <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
-        <v>15</v>
-      </c>
-      <c r="H29" s="3">
-        <v>17</v>
+      <c r="G29" s="9">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5">
+        <v>16</v>
       </c>
       <c r="I29" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>9.0230099999999993</v>
+        <v>9.0230169999999994</v>
       </c>
       <c r="B30" s="1">
-        <v>-79.531656999999996</v>
-      </c>
-      <c r="C30" s="4">
-        <v>9.0230121034700002</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-79.531671808900001</v>
-      </c>
-      <c r="E30" s="4">
-        <v>23</v>
-      </c>
-      <c r="F30" s="9">
+        <v>-79.531651999999994</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.0230183428800004</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-79.5316660692</v>
+      </c>
+      <c r="E30" s="2">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>15</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>17</v>
       </c>
       <c r="I30" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>9.0230040000000002</v>
+        <v>9.0230099999999993</v>
       </c>
       <c r="B31" s="1">
-        <v>-79.531662999999995</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9.0230069039499998</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-79.531676591999997</v>
-      </c>
-      <c r="E31" s="2">
-        <v>24</v>
-      </c>
-      <c r="F31" s="8">
+        <v>-79.531656999999996</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9.0230121034700002</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-79.531671808900001</v>
+      </c>
+      <c r="E31" s="4">
+        <v>23</v>
+      </c>
+      <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3">
-        <v>18</v>
+      <c r="G31" s="9">
+        <v>15</v>
+      </c>
+      <c r="H31" s="5">
+        <v>17</v>
       </c>
       <c r="I31" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>9.0229990000000004</v>
+        <v>9.0230040000000002</v>
       </c>
       <c r="B32" s="1">
-        <v>-79.531667999999996</v>
-      </c>
-      <c r="C32" s="4">
-        <v>9.02300120618</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-79.531681833500002</v>
-      </c>
-      <c r="E32" s="4">
-        <v>25</v>
-      </c>
-      <c r="F32" s="9">
+        <v>-79.531662999999995</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.0230069039499998</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-79.531676591999997</v>
+      </c>
+      <c r="E32" s="2">
+        <v>24</v>
+      </c>
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="9">
-        <v>13</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="8">
+        <v>14</v>
+      </c>
+      <c r="H32" s="3">
         <v>18</v>
       </c>
       <c r="I32" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>9.0229940000000006</v>
+        <v>9.0229990000000004</v>
       </c>
       <c r="B33" s="1">
-        <v>-79.531673999999995</v>
-      </c>
-      <c r="C33" s="2">
-        <v>9.0229944251200003</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-79.5316880715</v>
-      </c>
-      <c r="E33" s="2">
-        <v>26</v>
-      </c>
-      <c r="F33" s="8">
+        <v>-79.531667999999996</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.02300120618</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-79.531681833500002</v>
+      </c>
+      <c r="E33" s="4">
+        <v>25</v>
+      </c>
+      <c r="F33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
-        <v>12</v>
-      </c>
-      <c r="H33" s="3">
-        <v>19</v>
+      <c r="G33" s="9">
+        <v>13</v>
+      </c>
+      <c r="H33" s="5">
+        <v>18</v>
       </c>
       <c r="I33" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>9.0229870000000005</v>
+        <v>9.0229940000000006</v>
       </c>
       <c r="B34" s="1">
-        <v>-79.531679999999994</v>
-      </c>
-      <c r="C34" s="4">
-        <v>9.02298814233</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-79.531693851200004</v>
-      </c>
-      <c r="E34" s="4">
-        <v>27</v>
-      </c>
-      <c r="F34" s="9">
+        <v>-79.531673999999995</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.0229944251200003</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-79.5316880715</v>
+      </c>
+      <c r="E34" s="2">
+        <v>26</v>
+      </c>
+      <c r="F34" s="8">
         <v>1</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>12</v>
       </c>
-      <c r="H34" s="5">
-        <v>20</v>
+      <c r="H34" s="3">
+        <v>19</v>
       </c>
       <c r="I34" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>9.0229800000000004</v>
+        <v>9.0229870000000005</v>
       </c>
       <c r="B35" s="1">
-        <v>-79.531684999999996</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9.0229813178999994</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-79.531700129100003</v>
-      </c>
-      <c r="E35" s="2">
-        <v>28</v>
-      </c>
-      <c r="F35" s="8">
+        <v>-79.531679999999994</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.02298814233</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-79.531693851200004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>27</v>
+      </c>
+      <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="9">
+        <v>12</v>
+      </c>
+      <c r="H35" s="5">
         <v>20</v>
       </c>
       <c r="I35" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>9.0229719999999993</v>
+        <v>9.0229800000000004</v>
       </c>
       <c r="B36" s="1">
-        <v>-79.531689999999998</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9.0229740385799992</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-79.531706825399993</v>
-      </c>
-      <c r="E36" s="4">
-        <v>29</v>
-      </c>
-      <c r="F36" s="9">
+        <v>-79.531684999999996</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.0229813178999994</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-79.531700129100003</v>
+      </c>
+      <c r="E36" s="2">
+        <v>28</v>
+      </c>
+      <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="9">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5">
-        <v>21</v>
+      <c r="G36" s="8">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20</v>
       </c>
       <c r="I36" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>9.0229649999999992</v>
+        <v>9.0229719999999993</v>
       </c>
       <c r="B37" s="1">
-        <v>-79.531696999999994</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9.0229668026399992</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-79.531713481899999</v>
-      </c>
-      <c r="E37" s="2">
-        <v>30</v>
-      </c>
-      <c r="F37" s="8">
+        <v>-79.531689999999998</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.0229740385799992</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-79.531706825399993</v>
+      </c>
+      <c r="E37" s="4">
+        <v>29</v>
+      </c>
+      <c r="F37" s="9">
         <v>1</v>
       </c>
-      <c r="G37" s="8">
-        <v>9</v>
-      </c>
-      <c r="H37" s="3">
-        <v>22</v>
+      <c r="G37" s="9">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5">
+        <v>21</v>
       </c>
       <c r="I37" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>9.0229590000000002</v>
+        <v>9.0229649999999992</v>
       </c>
       <c r="B38" s="1">
-        <v>-79.531705000000002</v>
-      </c>
-      <c r="C38" s="4">
-        <v>9.0229621447599992</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-79.5317177668</v>
-      </c>
-      <c r="E38" s="4">
-        <v>31</v>
-      </c>
-      <c r="F38" s="9">
+        <v>-79.531696999999994</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9.0229668026399992</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-79.531713481899999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30</v>
+      </c>
+      <c r="F38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="9">
-        <v>8</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38" s="8">
+        <v>9</v>
+      </c>
+      <c r="H38" s="3">
         <v>22</v>
       </c>
       <c r="I38" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>9.0229549999999996</v>
+        <v>9.0229590000000002</v>
       </c>
       <c r="B39" s="1">
-        <v>-79.531710000000004</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.0229549088199992</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-79.531724423200004</v>
-      </c>
-      <c r="E39" s="2">
-        <v>32</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>7</v>
-      </c>
-      <c r="H39" s="3">
-        <v>23</v>
+        <v>-79.531705000000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.0229621447599992</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-79.5317177668</v>
+      </c>
+      <c r="E39" s="4">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>8</v>
+      </c>
+      <c r="H39" s="5">
+        <v>22</v>
       </c>
       <c r="I39" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>9.0229490000000006</v>
+        <v>9.0229549999999996</v>
       </c>
       <c r="B40" s="1">
-        <v>-79.531717999999998</v>
-      </c>
-      <c r="C40" s="4">
-        <v>9.0229481711399995</v>
-      </c>
-      <c r="D40" s="5">
-        <v>-79.531730621299999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>33</v>
-      </c>
-      <c r="F40" s="9">
+        <v>-79.531710000000004</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9.0229549088199992</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-79.531724423200004</v>
+      </c>
+      <c r="E40" s="2">
+        <v>32</v>
+      </c>
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
-        <v>6</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40" s="8">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
         <v>23</v>
       </c>
       <c r="I40" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>9.0229429999999997</v>
+        <v>9.0229490000000006</v>
       </c>
       <c r="B41" s="1">
-        <v>-79.531724999999994</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9.0229414334599998</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-79.531736819399995</v>
-      </c>
-      <c r="E41" s="2">
-        <v>34</v>
-      </c>
-      <c r="F41" s="8">
+        <v>-79.531717999999998</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9.0229481711399995</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-79.531730621299999</v>
+      </c>
+      <c r="E41" s="4">
+        <v>33</v>
+      </c>
+      <c r="F41" s="9">
         <v>0</v>
       </c>
-      <c r="G41" s="8">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>24</v>
+      <c r="G41" s="9">
+        <v>6</v>
+      </c>
+      <c r="H41" s="5">
+        <v>23</v>
       </c>
       <c r="I41" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>9.0229370000000007</v>
+        <v>9.0229429999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>-79.531732000000005</v>
-      </c>
-      <c r="C42" s="4">
-        <v>9.0229325726000003</v>
-      </c>
-      <c r="D42" s="5">
-        <v>-79.531744970700004</v>
-      </c>
-      <c r="E42" s="4">
-        <v>35</v>
-      </c>
-      <c r="F42" s="9">
+        <v>-79.531724999999994</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.0229414334599998</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-79.531736819399995</v>
+      </c>
+      <c r="E42" s="2">
+        <v>34</v>
+      </c>
+      <c r="F42" s="8">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
-        <v>4</v>
-      </c>
-      <c r="H42" s="5">
-        <v>25</v>
+      <c r="G42" s="8">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>24</v>
       </c>
       <c r="I42" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>9.0229280000000003</v>
+        <v>9.0229370000000007</v>
       </c>
       <c r="B43" s="1">
-        <v>-79.531739999999999</v>
-      </c>
-      <c r="C43" s="2">
-        <v>9.0229257915499996</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-79.531751208700001</v>
-      </c>
-      <c r="E43" s="2">
-        <v>36</v>
-      </c>
-      <c r="F43" s="8">
+        <v>-79.531732000000005</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9.0229325726000003</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-79.531744970700004</v>
+      </c>
+      <c r="E43" s="4">
+        <v>35</v>
+      </c>
+      <c r="F43" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="8">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>26</v>
+      <c r="G43" s="9">
+        <v>4</v>
+      </c>
+      <c r="H43" s="5">
+        <v>25</v>
       </c>
       <c r="I43" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>9.0229210000000002</v>
+        <v>9.0229280000000003</v>
       </c>
       <c r="B44" s="1">
-        <v>-79.531745999999998</v>
-      </c>
-      <c r="C44" s="4">
-        <v>9.0229185122299995</v>
-      </c>
-      <c r="D44" s="5">
-        <v>-79.531757905000006</v>
-      </c>
-      <c r="E44" s="4">
-        <v>37</v>
-      </c>
-      <c r="F44" s="9">
+        <v>-79.531739999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9.0229257915499996</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-79.531751208700001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>3</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <v>26</v>
       </c>
       <c r="I44" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>9.0229140000000001</v>
+        <v>9.0229210000000002</v>
       </c>
       <c r="B45" s="1">
-        <v>-79.531752999999995</v>
-      </c>
-      <c r="C45" s="2">
-        <v>9.0229138543499996</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-79.531762189899993</v>
-      </c>
-      <c r="E45" s="2">
-        <v>38</v>
-      </c>
-      <c r="F45" s="8">
+        <v>-79.531745999999998</v>
+      </c>
+      <c r="C45" s="4">
+        <v>9.0229185122299995</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-79.531757905000006</v>
+      </c>
+      <c r="E45" s="4">
+        <v>37</v>
+      </c>
+      <c r="F45" s="9">
         <v>0</v>
       </c>
-      <c r="G45" s="8">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3">
-        <v>27</v>
+      <c r="G45" s="9">
+        <v>3</v>
+      </c>
+      <c r="H45" s="5">
+        <v>26</v>
       </c>
       <c r="I45" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>9.0229099999999995</v>
+        <v>9.0229140000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>-79.531757999999996</v>
-      </c>
-      <c r="C46" s="4">
-        <v>9.0229086548400002</v>
-      </c>
-      <c r="D46" s="5">
-        <v>-79.531766973000003</v>
-      </c>
-      <c r="E46" s="4">
-        <v>39</v>
-      </c>
-      <c r="F46" s="9">
+        <v>-79.531752999999995</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9.0229138543499996</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-79.531762189899993</v>
+      </c>
+      <c r="E46" s="2">
+        <v>38</v>
+      </c>
+      <c r="F46" s="8">
         <v>0</v>
       </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="G46" s="8">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3">
         <v>27</v>
       </c>
       <c r="I46" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>9.0229049999999997</v>
+        <v>9.0229099999999995</v>
       </c>
       <c r="B47" s="1">
-        <v>-79.531762999999998</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9.0229070733000007</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-79.531768427900005</v>
-      </c>
-      <c r="E47" s="2">
+        <v>-79.531757999999996</v>
+      </c>
+      <c r="C47" s="4">
+        <v>9.0229086548400002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-79.531766973000003</v>
+      </c>
+      <c r="E47" s="4">
         <v>39</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <v>0</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="5">
         <v>27</v>
       </c>
       <c r="I47" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
+        <v>9.0229049999999997</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-79.531762999999998</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9.0229070733000007</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-79.531768427900005</v>
+      </c>
+      <c r="E48" s="2">
+        <v>39</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>27</v>
+      </c>
+      <c r="I48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>9.0229029999999995</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>-79.531763999999995</v>
       </c>
     </row>
@@ -26098,1114 +26441,1119 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB068D-30FA-4EAB-858D-4061F4E698A8}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>9.0229020000000002</v>
-      </c>
-      <c r="B1" s="1">
-        <v>-79.531764999999993</v>
-      </c>
-      <c r="C1" s="2">
-        <v>9.0228980308099995</v>
-      </c>
-      <c r="D1" s="3">
-        <v>-79.531777569599996</v>
-      </c>
-      <c r="E1" s="2">
-        <v>39</v>
-      </c>
-      <c r="F1" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3">
-        <v>28</v>
-      </c>
-      <c r="I1" s="10">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>9.0229009999999992</v>
+        <v>9.0229020000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>-79.531766000000005</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.0229025059799994</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-79.5317787181</v>
-      </c>
-      <c r="E2" s="4">
+        <v>-79.531764999999993</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.0228980308099995</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-79.531777569599996</v>
+      </c>
+      <c r="E2" s="2">
         <v>39</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>27</v>
+      <c r="H2" s="3">
+        <v>28</v>
       </c>
       <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>9.0229049999999997</v>
+        <v>9.0229009999999992</v>
       </c>
       <c r="B3" s="1">
-        <v>-79.531768999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.0229076785700002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-79.531780045600001</v>
-      </c>
-      <c r="E3" s="2">
+        <v>-79.531766000000005</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.0229025059799994</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-79.5317787181</v>
+      </c>
+      <c r="E3" s="4">
         <v>39</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>26</v>
+      <c r="H3" s="5">
+        <v>27</v>
       </c>
       <c r="I3" s="10">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>9.0229099999999995</v>
+        <v>9.0229049999999997</v>
       </c>
       <c r="B4" s="1">
-        <v>-79.531771000000006</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.0229140301499999</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-79.531781675600001</v>
-      </c>
-      <c r="E4" s="4">
+        <v>-79.531768999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.0229076785700002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-79.531780045600001</v>
+      </c>
+      <c r="E4" s="2">
         <v>39</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>26</v>
       </c>
       <c r="I4" s="10">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9.0229160000000004</v>
+        <v>9.0229099999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>-79.531773999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.0229192027499998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-79.531783003100003</v>
-      </c>
-      <c r="E5" s="2">
+        <v>-79.531771000000006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.0229140301499999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-79.531781675600001</v>
+      </c>
+      <c r="E5" s="4">
         <v>39</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="3">
-        <v>25</v>
+      <c r="H5" s="5">
+        <v>26</v>
       </c>
       <c r="I5" s="10">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9.0229210000000002</v>
+        <v>9.0229160000000004</v>
       </c>
       <c r="B6" s="1">
-        <v>-79.531775999999994</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9.0229231963499998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-79.531784028000004</v>
-      </c>
-      <c r="E6" s="4">
+        <v>-79.531773999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.0229192027499998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-79.531783003100003</v>
+      </c>
+      <c r="E6" s="2">
         <v>39</v>
       </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>25</v>
       </c>
       <c r="I6" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>9.0229250000000008</v>
+        <v>9.0229210000000002</v>
       </c>
       <c r="B7" s="1">
-        <v>-79.531777000000005</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.0229290663799997</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-79.531785534500003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8">
+        <v>-79.531775999999994</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.0229231963499998</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-79.531784028000004</v>
+      </c>
+      <c r="E7" s="4">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
-        <v>24</v>
+      <c r="H7" s="5">
+        <v>25</v>
       </c>
       <c r="I7" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>9.0229309999999998</v>
+        <v>9.0229250000000008</v>
       </c>
       <c r="B8" s="1">
-        <v>-79.531778000000003</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9.0229354179599994</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-79.531787164500003</v>
-      </c>
-      <c r="E8" s="4">
+        <v>-79.531777000000005</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.0229290663799997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-79.531785534500003</v>
+      </c>
+      <c r="E8" s="2">
         <v>38</v>
       </c>
-      <c r="F8" s="9">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
-        <v>23</v>
+      <c r="H8" s="3">
+        <v>24</v>
       </c>
       <c r="I8" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9.0229370000000007</v>
+        <v>9.0229309999999998</v>
       </c>
       <c r="B9" s="1">
-        <v>-79.531780999999995</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.0229436459500008</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-79.5317892761</v>
-      </c>
-      <c r="E9" s="2">
+        <v>-79.531778000000003</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.0229354179599994</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-79.531787164500003</v>
+      </c>
+      <c r="E9" s="4">
         <v>38</v>
       </c>
-      <c r="F9" s="8">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>22</v>
+      <c r="H9" s="5">
+        <v>23</v>
       </c>
       <c r="I9" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9.022945</v>
+        <v>9.0229370000000007</v>
       </c>
       <c r="B10" s="1">
-        <v>-79.531784000000002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9.0229521147200007</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-79.531791449500005</v>
-      </c>
-      <c r="E10" s="4">
+        <v>-79.531780999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.0229436459500008</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-79.5317892761</v>
+      </c>
+      <c r="E10" s="2">
         <v>38</v>
       </c>
-      <c r="F10" s="9">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>22</v>
       </c>
       <c r="I10" s="10">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9.0229529999999993</v>
+        <v>9.022945</v>
       </c>
       <c r="B11" s="1">
-        <v>-79.531788000000006</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.0229612809299997</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-79.531793801899994</v>
-      </c>
-      <c r="E11" s="2">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8">
+        <v>-79.531784000000002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9.0229521147200007</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-79.531791449500005</v>
+      </c>
+      <c r="E11" s="4">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <v>21</v>
+      <c r="H11" s="5">
+        <v>22</v>
       </c>
       <c r="I11" s="10">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>9.0229619999999997</v>
+        <v>9.0229529999999993</v>
       </c>
       <c r="B12" s="1">
-        <v>-79.531790999999998</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9.0229695089199993</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-79.531795913500005</v>
-      </c>
-      <c r="E12" s="4">
+        <v>-79.531788000000006</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.0229612809299997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-79.531793801899994</v>
+      </c>
+      <c r="E12" s="2">
         <v>37</v>
       </c>
-      <c r="F12" s="9">
-        <v>6</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
-        <v>20</v>
+      <c r="H12" s="3">
+        <v>21</v>
       </c>
       <c r="I12" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>9.0229700000000008</v>
+        <v>9.0229619999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>-79.531794000000005</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.0229786751199992</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-79.531798265899994</v>
-      </c>
-      <c r="E13" s="2">
+        <v>-79.531790999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.0229695089199993</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-79.531795913500005</v>
+      </c>
+      <c r="E13" s="4">
         <v>37</v>
       </c>
-      <c r="F13" s="8">
-        <v>7</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
-        <v>19</v>
+      <c r="H13" s="5">
+        <v>20</v>
       </c>
       <c r="I13" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9.0229789999999994</v>
+        <v>9.0229700000000008</v>
       </c>
       <c r="B14" s="1">
-        <v>-79.531796999999997</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.0229859649099993</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-79.531800136699999</v>
-      </c>
-      <c r="E14" s="4">
+        <v>-79.531794000000005</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.0229786751199992</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-79.531798265899994</v>
+      </c>
+      <c r="E14" s="2">
         <v>37</v>
       </c>
-      <c r="F14" s="9">
-        <v>8</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
-        <v>18</v>
+      <c r="H14" s="3">
+        <v>19</v>
       </c>
       <c r="I14" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>9.0229859999999995</v>
+        <v>9.0229789999999994</v>
       </c>
       <c r="B15" s="1">
-        <v>-79.531800000000004</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.0229948903300006</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-79.531802427299993</v>
-      </c>
-      <c r="E15" s="2">
-        <v>36</v>
-      </c>
-      <c r="F15" s="8">
-        <v>9</v>
-      </c>
-      <c r="G15" s="8">
+        <v>-79.531796999999997</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.0229859649099993</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-79.531800136699999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>17</v>
+      <c r="H15" s="5">
+        <v>18</v>
       </c>
       <c r="I15" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>9.0229949999999999</v>
+        <v>9.0229859999999995</v>
       </c>
       <c r="B16" s="1">
-        <v>-79.531801999999999</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.0230040565300005</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-79.531804779699996</v>
-      </c>
-      <c r="E16" s="4">
+        <v>-79.531800000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.0229948903300006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-79.531802427299993</v>
+      </c>
+      <c r="E16" s="2">
         <v>36</v>
       </c>
-      <c r="F16" s="9">
-        <v>10</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="8">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
-        <v>16</v>
+      <c r="H16" s="3">
+        <v>17</v>
       </c>
       <c r="I16" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>9.0230040000000002</v>
+        <v>9.0229949999999999</v>
       </c>
       <c r="B17" s="1">
-        <v>-79.531805000000006</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.0230122845299991</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-79.531806891299993</v>
-      </c>
-      <c r="E17" s="2">
+        <v>-79.531801999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.0230040565300005</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-79.531804779699996</v>
+      </c>
+      <c r="E17" s="4">
         <v>36</v>
       </c>
-      <c r="F17" s="8">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="9">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
-        <v>15</v>
+      <c r="H17" s="5">
+        <v>16</v>
       </c>
       <c r="I17" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>9.0230119999999996</v>
+        <v>9.0230040000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>-79.531807999999998</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.0230190927600002</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-79.531808638599998</v>
-      </c>
-      <c r="E18" s="4">
-        <v>35</v>
-      </c>
-      <c r="F18" s="9">
+        <v>-79.531805000000006</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.0230122845299991</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-79.531806891299993</v>
+      </c>
+      <c r="E18" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" s="8">
         <v>11</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="5">
-        <v>14</v>
+      <c r="H18" s="3">
+        <v>15</v>
       </c>
       <c r="I18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>9.0230189999999997</v>
+        <v>9.0230119999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>-79.531808999999996</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.0230268391999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-79.531810626600006</v>
-      </c>
-      <c r="E19" s="2">
+        <v>-79.531807999999998</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.0230190927600002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-79.531808638599998</v>
+      </c>
+      <c r="E19" s="4">
         <v>35</v>
       </c>
-      <c r="F19" s="8">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="9">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
-        <v>13</v>
+      <c r="H19" s="5">
+        <v>14</v>
       </c>
       <c r="I19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>9.0230270000000008</v>
+        <v>9.0230189999999997</v>
       </c>
       <c r="B20" s="1">
-        <v>-79.531809999999993</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9.0230378818099997</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-79.531813460500004</v>
-      </c>
-      <c r="E20" s="4">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9">
+        <v>-79.531808999999996</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.0230268391999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-79.531810626600006</v>
+      </c>
+      <c r="E20" s="2">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>13</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>12</v>
-      </c>
       <c r="I20" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>9.0230379999999997</v>
+        <v>9.0230270000000008</v>
       </c>
       <c r="B21" s="1">
-        <v>-79.531813</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.0230479862199999</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-79.531816053699998</v>
-      </c>
-      <c r="E21" s="2">
+        <v>-79.531809999999993</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.0230378818099997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-79.531813460500004</v>
+      </c>
+      <c r="E21" s="4">
         <v>34</v>
       </c>
-      <c r="F21" s="8">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="9">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
-        <v>11</v>
+      <c r="H21" s="5">
+        <v>12</v>
       </c>
       <c r="I21" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9.0230479999999993</v>
+        <v>9.0230379999999997</v>
       </c>
       <c r="B22" s="1">
-        <v>-79.531816000000006</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9.0230571524199998</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-79.531818406100001</v>
-      </c>
-      <c r="E22" s="4">
+        <v>-79.531813</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.0230479862199999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-79.531816053699998</v>
+      </c>
+      <c r="E22" s="2">
         <v>34</v>
       </c>
-      <c r="F22" s="9">
-        <v>15</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="8">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="5">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>11</v>
       </c>
       <c r="I22" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9.0230569999999997</v>
+        <v>9.0230479999999993</v>
       </c>
       <c r="B23" s="1">
-        <v>-79.531818999999999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.0230672568300001</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-79.531820999199994</v>
-      </c>
-      <c r="E23" s="2">
-        <v>33</v>
-      </c>
-      <c r="F23" s="8">
-        <v>16</v>
-      </c>
-      <c r="G23" s="8">
+        <v>-79.531816000000006</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9.0230571524199998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-79.531818406100001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9">
+        <v>15</v>
+      </c>
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="3">
-        <v>9</v>
+      <c r="H23" s="5">
+        <v>10</v>
       </c>
       <c r="I23" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>9.0230669999999993</v>
+        <v>9.0230569999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>-79.531822000000005</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9.0230768796799996</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-79.531823468799999</v>
-      </c>
-      <c r="E24" s="4">
+        <v>-79.531818999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.0230672568300001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-79.531820999199994</v>
+      </c>
+      <c r="E24" s="2">
         <v>33</v>
       </c>
-      <c r="F24" s="9">
-        <v>17</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="8">
+        <v>16</v>
+      </c>
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="5">
-        <v>7</v>
+      <c r="H24" s="3">
+        <v>9</v>
       </c>
       <c r="I24" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9.0230770000000007</v>
+        <v>9.0230669999999993</v>
       </c>
       <c r="B25" s="1">
-        <v>-79.531823000000003</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.0230876815199998</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-79.531826241000005</v>
-      </c>
-      <c r="E25" s="2">
-        <v>32</v>
-      </c>
-      <c r="F25" s="8">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8">
+        <v>-79.531822000000005</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9.0230768796799996</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-79.531823468799999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25" s="3">
-        <v>6</v>
+      <c r="H25" s="5">
+        <v>7</v>
       </c>
       <c r="I25" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>9.0230879999999996</v>
+        <v>9.0230770000000007</v>
       </c>
       <c r="B26" s="1">
-        <v>-79.531824999999998</v>
-      </c>
-      <c r="C26" s="4">
-        <v>9.0230975451499997</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-79.531828772300003</v>
-      </c>
-      <c r="E26" s="4">
+        <v>-79.531823000000003</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.0230876815199998</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-79.531826241000005</v>
+      </c>
+      <c r="E26" s="2">
         <v>32</v>
       </c>
-      <c r="F26" s="9">
-        <v>19</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="8">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="5">
-        <v>5</v>
+      <c r="H26" s="3">
+        <v>6</v>
       </c>
       <c r="I26" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>9.0230979999999992</v>
+        <v>9.0230879999999996</v>
       </c>
       <c r="B27" s="1">
-        <v>-79.531827000000007</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9.0231067113499996</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-79.531831124700005</v>
-      </c>
-      <c r="E27" s="2">
-        <v>31</v>
-      </c>
-      <c r="F27" s="8">
+        <v>-79.531824999999998</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.0230975451499997</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-79.531828772300003</v>
+      </c>
+      <c r="E27" s="4">
+        <v>32</v>
+      </c>
+      <c r="F27" s="9">
         <v>19</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <v>4</v>
+      <c r="H27" s="5">
+        <v>5</v>
       </c>
       <c r="I27" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>9.0231069999999995</v>
+        <v>9.0230979999999992</v>
       </c>
       <c r="B28" s="1">
-        <v>-79.531829999999999</v>
-      </c>
-      <c r="C28" s="4">
-        <v>9.0231163341999991</v>
-      </c>
-      <c r="D28" s="5">
-        <v>-79.531833594299997</v>
-      </c>
-      <c r="E28" s="4">
+        <v>-79.531827000000007</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.0231067113499996</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-79.531831124700005</v>
+      </c>
+      <c r="E28" s="2">
         <v>31</v>
       </c>
-      <c r="F28" s="9">
-        <v>20</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="5">
-        <v>3</v>
+      <c r="H28" s="3">
+        <v>4</v>
       </c>
       <c r="I28" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>9.0231169999999992</v>
+        <v>9.0231069999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>-79.531830999999997</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9.0231268952600008</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-79.531836304699993</v>
-      </c>
-      <c r="E29" s="2">
-        <v>30</v>
-      </c>
-      <c r="F29" s="8">
-        <v>21</v>
-      </c>
-      <c r="G29" s="8">
+        <v>-79.531829999999999</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9.0231163341999991</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-79.531833594299997</v>
+      </c>
+      <c r="E29" s="4">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9">
+        <v>20</v>
+      </c>
+      <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="3">
-        <v>2</v>
+      <c r="H29" s="5">
+        <v>3</v>
       </c>
       <c r="I29" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>9.0231279999999998</v>
+        <v>9.0231169999999992</v>
       </c>
       <c r="B30" s="1">
-        <v>-79.531831999999994</v>
-      </c>
-      <c r="C30" s="4">
-        <v>9.0231383945299992</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-79.531839255799994</v>
-      </c>
-      <c r="E30" s="4">
+        <v>-79.531830999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.0231268952600008</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-79.531836304699993</v>
+      </c>
+      <c r="E30" s="2">
         <v>30</v>
       </c>
-      <c r="F30" s="9">
-        <v>22</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="8">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="5">
-        <v>0</v>
+      <c r="H30" s="3">
+        <v>2</v>
       </c>
       <c r="I30" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>9.0231399999999997</v>
+        <v>9.0231279999999998</v>
       </c>
       <c r="B31" s="1">
-        <v>-79.531833000000006</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9.0231494122400004</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-79.531842083399994</v>
-      </c>
-      <c r="E31" s="2">
-        <v>29</v>
-      </c>
-      <c r="F31" s="8">
-        <v>23</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
+        <v>-79.531831999999994</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9.0231383945299992</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-79.531839255799994</v>
+      </c>
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="9">
+        <v>22</v>
+      </c>
+      <c r="G31" s="9">
         <v>0</v>
       </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
       <c r="I31" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>9.0231519999999996</v>
+        <v>9.0231399999999997</v>
       </c>
       <c r="B32" s="1">
-        <v>-79.531831999999994</v>
-      </c>
-      <c r="C32" s="4">
-        <v>9.0231580968799996</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-79.531844312199993</v>
-      </c>
-      <c r="E32" s="4">
-        <v>28</v>
-      </c>
-      <c r="F32" s="9">
-        <v>24</v>
-      </c>
-      <c r="G32" s="9">
+        <v>-79.531833000000006</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.0231494122400004</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-79.531842083399994</v>
+      </c>
+      <c r="E32" s="2">
+        <v>29</v>
+      </c>
+      <c r="F32" s="8">
+        <v>23</v>
+      </c>
+      <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="5">
-        <v>1</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>9.023161</v>
+        <v>9.0231519999999996</v>
       </c>
       <c r="B33" s="1">
-        <v>-79.531833000000006</v>
-      </c>
-      <c r="C33" s="2">
-        <v>9.02316702231</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-79.5318466027</v>
-      </c>
-      <c r="E33" s="2">
+        <v>-79.531831999999994</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.0231580968799996</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-79.531844312199993</v>
+      </c>
+      <c r="E33" s="4">
         <v>28</v>
       </c>
-      <c r="F33" s="8">
-        <v>25</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="9">
+        <v>24</v>
+      </c>
+      <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="H33" s="3">
-        <v>2</v>
+      <c r="H33" s="5">
+        <v>1</v>
       </c>
       <c r="I33" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>9.0231700000000004</v>
+        <v>9.023161</v>
       </c>
       <c r="B34" s="1">
-        <v>-79.531835000000001</v>
-      </c>
-      <c r="C34" s="4">
-        <v>9.0231733738899997</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-79.531848232800002</v>
-      </c>
-      <c r="E34" s="4">
+        <v>-79.531833000000006</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.02316702231</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-79.5318466027</v>
+      </c>
+      <c r="E34" s="2">
         <v>28</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>25</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="H34" s="5">
-        <v>3</v>
+      <c r="H34" s="3">
+        <v>2</v>
       </c>
       <c r="I34" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>9.0231759999999994</v>
+        <v>9.0231700000000004</v>
       </c>
       <c r="B35" s="1">
-        <v>-79.531837999999993</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9.0231750344300004</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-79.531848659000005</v>
-      </c>
-      <c r="E35" s="2">
+        <v>-79.531835000000001</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.0231733738899997</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-79.531848232800002</v>
+      </c>
+      <c r="E35" s="4">
         <v>28</v>
       </c>
-      <c r="F35" s="8">
-        <v>26</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="F35" s="9">
+        <v>25</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>9.0231770000000004</v>
+        <v>9.0231759999999994</v>
       </c>
       <c r="B36" s="1">
-        <v>-79.531841</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9.0231750593399997</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-79.531848665300004</v>
-      </c>
-      <c r="E36" s="4">
+        <v>-79.531837999999993</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.0231750344300004</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-79.531848659000005</v>
+      </c>
+      <c r="E36" s="2">
         <v>28</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>26</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>3</v>
       </c>
       <c r="I36" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>9.0231759999999994</v>
+        <v>9.0231770000000004</v>
       </c>
       <c r="B37" s="1">
-        <v>-79.531845000000004</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9.0231755408899996</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-79.531848788900007</v>
-      </c>
-      <c r="E37" s="2">
+        <v>-79.531841</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.0231750593399997</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-79.531848665300004</v>
+      </c>
+      <c r="E37" s="4">
         <v>28</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <v>26</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27213,42 +27561,71 @@
         <v>9.0231759999999994</v>
       </c>
       <c r="B38" s="1">
-        <v>-79.531846999999999</v>
-      </c>
-      <c r="C38" s="4">
-        <v>9.0231748434700005</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-79.531848609899995</v>
-      </c>
-      <c r="E38" s="4">
-        <v>29</v>
-      </c>
-      <c r="F38" s="9">
+        <v>-79.531845000000004</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9.0231755408899996</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-79.531848788900007</v>
+      </c>
+      <c r="E38" s="2">
+        <v>28</v>
+      </c>
+      <c r="F38" s="8">
         <v>26</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>3</v>
       </c>
       <c r="I38" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>9.0231759999999994</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-79.531846999999999</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.0231748434700005</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-79.531848609899995</v>
+      </c>
+      <c r="E39" s="4">
+        <v>29</v>
+      </c>
+      <c r="F39" s="9">
+        <v>26</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>9.0231750000000002</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>-79.531847999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27257,804 +27634,841 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCA7FCB-4129-452D-97BB-C333A8312C34}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D27"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>9.0231790000000007</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>-79.531848999999994</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>9.0231729216299996</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="3">
         <v>-79.531827123900001</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="2">
         <v>28</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F2" s="8">
         <v>26</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>9.0231829999999995</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>-79.531845000000004</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>9.0231796135100009</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>-79.531823351100002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>27</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="9">
         <v>26</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>9.0231890000000003</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>-79.531840000000003</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>9.0231886786099995</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>-79.531818240299998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>26</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="8">
         <v>26</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>9.0231969999999997</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-79.531833000000006</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>9.0231962260999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>-79.531813985100001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="9">
         <v>26</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>9.0232030000000005</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>-79.531825999999995</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>9.0232048634000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>-79.531809115499996</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>24</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <v>26</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>9.0232109999999999</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>-79.531819999999996</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>9.0232130728800009</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="5">
         <v>-79.531804487000002</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>23</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>27</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="R7" s="7"/>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>9.0232189999999992</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>-79.531814999999995</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>9.0232220411699995</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>-79.531799430800007</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>22</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>27</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="R8" s="6"/>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>9.0232279999999996</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>-79.531809999999993</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>9.0232314372700007</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>-79.531794133299996</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>27</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>6</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9.023237</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>-79.531803999999994</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>9.0232401713799995</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>-79.531789209099998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>27</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9.023244</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>-79.531796</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>9.0232498984700005</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>-79.531783725099999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>18</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>27</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>8</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>9.0232539999999997</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>-79.531790999999998</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>9.0232584389599992</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>-79.53177891</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>28</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>9.023263</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>-79.531786999999994</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>9.0232697804799997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <v>-79.5317725158</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>16</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>28</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>10</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>9.0232740000000007</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>-79.531779999999998</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>9.0232803631900005</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>-79.531766549400004</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>28</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>11</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>9.0232840000000003</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>-79.531773000000001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>9.0232908491000003</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>-79.5317606375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>28</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>11</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I15" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>9.0232949999999992</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>-79.531768</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>9.0233018596200001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>-79.531754429900005</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>29</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>12</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>9.0233050000000006</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-79.531760000000006</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.0233124423300008</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-79.531748463400007</v>
-      </c>
-      <c r="E16" s="4">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9">
-        <v>29</v>
-      </c>
-      <c r="G16" s="9">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>9.0233150000000002</v>
+        <v>9.0233050000000006</v>
       </c>
       <c r="B17" s="1">
-        <v>-79.531752999999995</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.0233231218499999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-79.531742442400002</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8">
+        <v>-79.531760000000006</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.0233124423300008</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-79.531748463400007</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9">
         <v>29</v>
       </c>
-      <c r="G17" s="8">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="9">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="I17" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>9.0233240000000006</v>
+        <v>9.0233150000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>-79.531744000000003</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.0233344633700003</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-79.531736048200003</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8</v>
-      </c>
-      <c r="F18" s="9">
+        <v>-79.531752999999995</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.0233231218499999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-79.531742442400002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
         <v>29</v>
       </c>
-      <c r="G18" s="9">
-        <v>16</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="8">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>9.0233349999999994</v>
+        <v>9.0233240000000006</v>
       </c>
       <c r="B19" s="1">
-        <v>-79.531737000000007</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.0233440936600005</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-79.531730618699996</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7</v>
-      </c>
-      <c r="F19" s="8">
-        <v>30</v>
-      </c>
-      <c r="G19" s="8">
+        <v>-79.531744000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.0233344633700003</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-79.531736048200003</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="9">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9">
         <v>16</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>9.0233460000000001</v>
+        <v>9.0233349999999994</v>
       </c>
       <c r="B20" s="1">
-        <v>-79.531734</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9.0233541517599996</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-79.531724948100006</v>
-      </c>
-      <c r="E20" s="4">
-        <v>6</v>
-      </c>
-      <c r="F20" s="9">
+        <v>-79.531737000000007</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.0233440936600005</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-79.531730618699996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8">
         <v>30</v>
       </c>
-      <c r="G20" s="9">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="8">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>9.0233570000000007</v>
+        <v>9.0233460000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>-79.531729999999996</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.0233634510500007</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-79.531719705200004</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8">
+        <v>-79.531734</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.0233541517599996</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-79.531724948100006</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9">
         <v>30</v>
       </c>
-      <c r="G21" s="8">
-        <v>18</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="9">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5">
         <v>0</v>
       </c>
       <c r="I21" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9.0233670000000004</v>
+        <v>9.0233570000000007</v>
       </c>
       <c r="B22" s="1">
-        <v>-79.531726000000006</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9.0233724193399993</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-79.531714648999994</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9">
-        <v>31</v>
-      </c>
-      <c r="G22" s="9">
-        <v>19</v>
-      </c>
-      <c r="H22" s="5">
+        <v>-79.531729999999996</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.0233634510500007</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-79.531719705200004</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>30</v>
+      </c>
+      <c r="G22" s="8">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9.0233760000000007</v>
+        <v>9.0233670000000004</v>
       </c>
       <c r="B23" s="1">
-        <v>-79.531721000000005</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.0233794422100004</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-79.531710689500002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="8">
+        <v>-79.531726000000006</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9.0233724193399993</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-79.531714648999994</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9">
         <v>31</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <v>19</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
         <v>0</v>
       </c>
       <c r="I23" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>9.0233830000000008</v>
+        <v>9.0233760000000007</v>
       </c>
       <c r="B24" s="1">
-        <v>-79.531717</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9.0233873206999995</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-79.531706247700001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9">
+        <v>-79.531721000000005</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.0233794422100004</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-79.531710689500002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8">
         <v>31</v>
       </c>
-      <c r="G24" s="9">
-        <v>20</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="8">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9.0233899999999991</v>
+        <v>9.0233830000000008</v>
       </c>
       <c r="B25" s="1">
-        <v>-79.531711000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.0233954333799993</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-79.531701673900002</v>
-      </c>
-      <c r="E25" s="2">
+        <v>-79.531717</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9.0233873206999995</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-79.531706247700001</v>
+      </c>
+      <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>31</v>
       </c>
-      <c r="G25" s="8">
-        <v>21</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="9">
+        <v>20</v>
+      </c>
+      <c r="H25" s="5">
         <v>0</v>
       </c>
       <c r="I25" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>9.0233989999999995</v>
+        <v>9.0233899999999991</v>
       </c>
       <c r="B26" s="1">
-        <v>-79.531707999999995</v>
-      </c>
-      <c r="C26" s="4">
-        <v>9.0234023594400004</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-79.531697769000004</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>32</v>
-      </c>
-      <c r="G26" s="9">
+        <v>-79.531711000000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.0233954333799993</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-79.531701673900002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>31</v>
+      </c>
+      <c r="G26" s="8">
         <v>21</v>
       </c>
-      <c r="H26" s="5">
-        <v>1</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>9.0234070000000006</v>
+        <v>9.0233989999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>-79.531706</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9.02340572566</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-79.5316958712</v>
-      </c>
-      <c r="E27" s="2">
+        <v>-79.531707999999995</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.0234023594400004</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-79.531697769000004</v>
+      </c>
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>32</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>21</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="I27" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>9.0234070000000006</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-79.531706</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.02340572566</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-79.5316958712</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>32</v>
+      </c>
+      <c r="G28" s="8">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>9.0234120000000004</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>-79.531706999999997</v>
       </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
